--- a/2020-05-24/TimeTable.xlsx
+++ b/2020-05-24/TimeTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Time UTC</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>CO</t>
+  </si>
+  <si>
+    <t>20 15</t>
   </si>
 </sst>
 </file>
@@ -198,12 +201,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,7 +210,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,108 +526,131 @@
   <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="8.140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19" style="4" customWidth="1"/>
+    <col min="4" max="16" width="10.5703125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="7">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7">
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <v>20</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="7"/>
@@ -642,10 +668,10 @@
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>30</v>
       </c>
       <c r="D7" s="7"/>
@@ -663,10 +689,10 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="7"/>
@@ -684,10 +710,10 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7"/>
@@ -705,10 +731,10 @@
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>320</v>
       </c>
       <c r="D10" s="7"/>
@@ -726,10 +752,10 @@
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>320</v>
       </c>
       <c r="D11" s="7"/>
@@ -747,10 +773,10 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="7"/>
@@ -768,10 +794,10 @@
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>240</v>
       </c>
       <c r="D13" s="7"/>
@@ -789,10 +815,10 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="7"/>
@@ -810,10 +836,10 @@
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>30</v>
       </c>
       <c r="D15" s="7"/>

--- a/2020-05-24/TimeTable.xlsx
+++ b/2020-05-24/TimeTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Time UTC</t>
   </si>
@@ -113,13 +113,74 @@
   </si>
   <si>
     <t>20 15</t>
+  </si>
+  <si>
+    <t>20 15 10</t>
+  </si>
+  <si>
+    <t>15 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 10</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +199,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,13 +285,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +607,7 @@
   <dimension ref="B3:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,23 +619,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -610,41 +691,41 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="7">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>20</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="D5" s="9">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5">
+        <v>20</v>
+      </c>
+      <c r="M5" s="5">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5">
+        <v>20</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -653,19 +734,31 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -674,19 +767,45 @@
       <c r="C7" s="1">
         <v>30</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="D7" s="9">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -695,19 +814,45 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -716,19 +861,31 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5">
+        <v>20</v>
+      </c>
+      <c r="O9" s="5">
+        <v>20</v>
+      </c>
+      <c r="P9" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -737,19 +894,33 @@
       <c r="C10" s="1">
         <v>320</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="5">
+        <v>20</v>
+      </c>
+      <c r="P10" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -758,19 +929,37 @@
       <c r="C11" s="1">
         <v>320</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5">
+        <v>15</v>
+      </c>
+      <c r="L11" s="5">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -779,19 +968,25 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>15</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>15</v>
+      </c>
+      <c r="P12" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -800,19 +995,37 @@
       <c r="C13" s="1">
         <v>240</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5">
+        <v>20</v>
+      </c>
+      <c r="P13" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -821,19 +1034,29 @@
       <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="D14" s="9">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>20</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -842,19 +1065,31 @@
       <c r="C15" s="1">
         <v>30</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>20</v>
+      </c>
+      <c r="N15" s="5">
+        <v>20</v>
+      </c>
+      <c r="O15" s="5">
+        <v>20</v>
+      </c>
+      <c r="P15" s="5">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
